--- a/test.e2e.xlsx
+++ b/test.e2e.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\和彩云同步文件夹\18698682909\部署手册\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoHome\src\github.com\osm.tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F29F3-5820-4EB7-B321-9EEEA82DDA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA2810-72ED-41F7-8FA1-5A1C02B7FEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45960" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
-    <sheet name="监控指标" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="151">
   <si>
     <t>e2e_certmanager_test.go</t>
   </si>
@@ -572,486 +571,6 @@
   <si>
     <t>Tests upgrading the control plane</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apiserver_audit_event_total</t>
-  </si>
-  <si>
-    <t>apiserver_audit_requests_rejected_total</t>
-  </si>
-  <si>
-    <t>apiserver_client_certificate_expiration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>apiserver_client_certificate_expiration_seconds_count</t>
-  </si>
-  <si>
-    <t>apiserver_client_certificate_expiration_seconds_sum</t>
-  </si>
-  <si>
-    <t>apiserver_envelope_encryption_dek_cache_fill_percent</t>
-  </si>
-  <si>
-    <t>apiserver_storage_data_key_generation_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>apiserver_storage_data_key_generation_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>apiserver_storage_data_key_generation_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>apiserver_storage_data_key_generation_failures_total</t>
-  </si>
-  <si>
-    <t>apiserver_storage_envelope_transformation_cache_misses_total</t>
-  </si>
-  <si>
-    <t>apiserver_watch_events_total</t>
-  </si>
-  <si>
-    <t>container_cpu_usage_seconds_total</t>
-  </si>
-  <si>
-    <t>container_memory_rss</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_cx_active</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_cx_connect_timeout</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_cx_destroy_local_with_active_rq</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_cx_destroy_remote_with_active_rq</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_cx_rx_bytes_total</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_cx_tx_bytes_total</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_rq_pending_failure_eject</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_rq_pending_overflow</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_rq_rx_reset</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_rq_timeout</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_rq_total</t>
-  </si>
-  <si>
-    <t>envoy_cluster_upstream_rq_xx</t>
-  </si>
-  <si>
-    <t>envoy_server_live</t>
-  </si>
-  <si>
-    <t>go_gc_duration_seconds</t>
-  </si>
-  <si>
-    <t>go_gc_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>go_gc_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>go_goroutines</t>
-  </si>
-  <si>
-    <t>go_info</t>
-  </si>
-  <si>
-    <t>go_memstats_alloc_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_alloc_bytes_total</t>
-  </si>
-  <si>
-    <t>go_memstats_buck_hash_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_frees_total</t>
-  </si>
-  <si>
-    <t>go_memstats_gc_cpu_fraction</t>
-  </si>
-  <si>
-    <t>go_memstats_gc_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_heap_alloc_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_heap_idle_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_heap_inuse_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_heap_objects</t>
-  </si>
-  <si>
-    <t>go_memstats_heap_released_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_heap_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_last_gc_time_seconds</t>
-  </si>
-  <si>
-    <t>go_memstats_lookups_total</t>
-  </si>
-  <si>
-    <t>go_memstats_mallocs_total</t>
-  </si>
-  <si>
-    <t>go_memstats_mcache_inuse_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_mcache_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_mspan_inuse_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_mspan_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_next_gc_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_other_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_stack_inuse_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_stack_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_memstats_sys_bytes</t>
-  </si>
-  <si>
-    <t>go_threads</t>
-  </si>
-  <si>
-    <t>kubelet_certificate_manager_client_expiration_renew_errors</t>
-  </si>
-  <si>
-    <t>kubelet_certificate_manager_client_ttl_seconds</t>
-  </si>
-  <si>
-    <t>kubelet_cgroup_manager_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_cgroup_manager_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_cgroup_manager_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_container_log_filesystem_used_bytes</t>
-  </si>
-  <si>
-    <t>kubelet_containers_per_pod_count_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_containers_per_pod_count_count</t>
-  </si>
-  <si>
-    <t>kubelet_containers_per_pod_count_sum</t>
-  </si>
-  <si>
-    <t>kubelet_http_inflight_requests</t>
-  </si>
-  <si>
-    <t>kubelet_http_requests_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_http_requests_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_http_requests_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_http_requests_total</t>
-  </si>
-  <si>
-    <t>kubelet_node_config_error</t>
-  </si>
-  <si>
-    <t>kubelet_node_name</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_discard_events</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_last_seen_seconds</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_relist_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_relist_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_relist_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_relist_interval_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_relist_interval_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_pleg_relist_interval_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_pod_start_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_pod_start_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_pod_start_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_pod_worker_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_pod_worker_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_pod_worker_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_pod_worker_start_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_pod_worker_start_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_pod_worker_start_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_run_podsandbox_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_run_podsandbox_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_run_podsandbox_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_running_containers</t>
-  </si>
-  <si>
-    <t>kubelet_running_pods</t>
-  </si>
-  <si>
-    <t>kubelet_runtime_operations_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>kubelet_runtime_operations_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>kubelet_runtime_operations_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>kubelet_runtime_operations_errors_total</t>
-  </si>
-  <si>
-    <t>kubelet_runtime_operations_total</t>
-  </si>
-  <si>
-    <t>kubernetes_build_info</t>
-  </si>
-  <si>
-    <t>osm_cert_issued_count</t>
-  </si>
-  <si>
-    <t>osm_cert_issued_time_bucket</t>
-  </si>
-  <si>
-    <t>osm_cert_issued_time_count</t>
-  </si>
-  <si>
-    <t>osm_cert_issued_time_sum</t>
-  </si>
-  <si>
-    <t>osm_injector_injector_rq_time_bucket</t>
-  </si>
-  <si>
-    <t>osm_injector_injector_rq_time_count</t>
-  </si>
-  <si>
-    <t>osm_injector_injector_rq_time_sum</t>
-  </si>
-  <si>
-    <t>osm_injector_injector_sidecar_count</t>
-  </si>
-  <si>
-    <t>osm_k8s_api_event_count</t>
-  </si>
-  <si>
-    <t>osm_proxy_broadcast_event_count</t>
-  </si>
-  <si>
-    <t>osm_proxy_config_update_time_bucket</t>
-  </si>
-  <si>
-    <t>osm_proxy_config_update_time_count</t>
-  </si>
-  <si>
-    <t>osm_proxy_config_update_time_sum</t>
-  </si>
-  <si>
-    <t>osm_proxy_connect_count</t>
-  </si>
-  <si>
-    <t>osm_proxy_reconnect_count</t>
-  </si>
-  <si>
-    <t>osm_proxy_response_send_error_count</t>
-  </si>
-  <si>
-    <t>osm_proxy_response_send_success_count</t>
-  </si>
-  <si>
-    <t>osm_request_duration_ms_bucket</t>
-  </si>
-  <si>
-    <t>osm_request_duration_ms_count</t>
-  </si>
-  <si>
-    <t>osm_request_duration_ms_sum</t>
-  </si>
-  <si>
-    <t>osm_request_total</t>
-  </si>
-  <si>
-    <t>osm_resource_namespace_count</t>
-  </si>
-  <si>
-    <t>process_cpu_seconds_total</t>
-  </si>
-  <si>
-    <t>process_max_fds</t>
-  </si>
-  <si>
-    <t>process_open_fds</t>
-  </si>
-  <si>
-    <t>process_resident_memory_bytes</t>
-  </si>
-  <si>
-    <t>process_start_time_seconds</t>
-  </si>
-  <si>
-    <t>process_virtual_memory_bytes</t>
-  </si>
-  <si>
-    <t>process_virtual_memory_max_bytes</t>
-  </si>
-  <si>
-    <t>rest_client_exec_plugin_certificate_rotation_age_bucket</t>
-  </si>
-  <si>
-    <t>rest_client_exec_plugin_certificate_rotation_age_count</t>
-  </si>
-  <si>
-    <t>rest_client_exec_plugin_certificate_rotation_age_sum</t>
-  </si>
-  <si>
-    <t>rest_client_exec_plugin_ttl_seconds</t>
-  </si>
-  <si>
-    <t>rest_client_request_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>rest_client_request_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>rest_client_request_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>rest_client_requests_total</t>
-  </si>
-  <si>
-    <t>scrape_duration_seconds</t>
-  </si>
-  <si>
-    <t>scrape_samples_post_metric_relabeling</t>
-  </si>
-  <si>
-    <t>scrape_samples_scraped</t>
-  </si>
-  <si>
-    <t>scrape_series_added</t>
-  </si>
-  <si>
-    <t>storage_operation_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>storage_operation_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>storage_operation_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>storage_operation_errors_total</t>
-  </si>
-  <si>
-    <t>storage_operation_status_count</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>volume_manager_total_volumes</t>
-  </si>
-  <si>
-    <t>workqueue_adds_total</t>
-  </si>
-  <si>
-    <t>workqueue_depth</t>
-  </si>
-  <si>
-    <t>workqueue_longest_running_processor_seconds</t>
-  </si>
-  <si>
-    <t>workqueue_queue_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>workqueue_queue_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>workqueue_queue_duration_seconds_sum</t>
-  </si>
-  <si>
-    <t>workqueue_retries_total</t>
-  </si>
-  <si>
-    <t>workqueue_unfinished_work_seconds</t>
-  </si>
-  <si>
-    <t>workqueue_work_duration_seconds_bucket</t>
-  </si>
-  <si>
-    <t>workqueue_work_duration_seconds_count</t>
-  </si>
-  <si>
-    <t>workqueue_work_duration_seconds_sum</t>
   </si>
   <si>
     <t>pipy暂不支持WASM脚本分析流量</t>
@@ -1392,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,23 +948,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1473,6 +981,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1766,7 +1283,7 @@
     <col min="2" max="2" width="30.58203125" customWidth="1"/>
     <col min="3" max="3" width="77.08203125" customWidth="1"/>
     <col min="4" max="4" width="71.58203125" customWidth="1"/>
-    <col min="5" max="5" width="138" customWidth="1"/>
+    <col min="5" max="5" width="108" customWidth="1"/>
     <col min="6" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="29.4140625" customWidth="1"/>
   </cols>
@@ -1808,8 +1325,8 @@
         <v>42</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D2,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="CertManagerSimpleClientServer"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D2,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="CertManagerSimpleClientServer"' make test-e2e</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>140</v>
@@ -1832,8 +1349,8 @@
         <v>45</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D3,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="SimpleClientServer traffic test involving osm-controller restart: HTTP"' make test-e2e</v>
+        <f t="shared" ref="E3:E15" si="0">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D3,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer traffic test involving osm-controller restart: HTTP"' make test-e2e</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>56</v>
@@ -1856,8 +1373,8 @@
         <v>47</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f t="shared" ref="E4:E13" si="0">_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D4,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="DebugServer"' make test-e2e</v>
+        <f t="shared" si="0"/>
+        <v>E2E_FLAGS='-ginkgo.focus="DebugServer"' make test-e2e</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>140</v>
@@ -1880,8 +1397,8 @@
         <v>49</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D5,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="DeploymentsClientServer"' make test-e2e</v>
+        <f t="shared" si="0"/>
+        <v>E2E_FLAGS='-ginkgo.focus="DeploymentsClientServer"' make test-e2e</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>140</v>
@@ -1894,10 +1411,10 @@
       <c r="A6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1905,7 +1422,7 @@
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP egress policy without route matches"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP egress policy without route matches"' make test-e2e</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>140</v>
@@ -1918,14 +1435,14 @@
       <c r="A7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP egress policy with route match"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP egress policy with route match"' make test-e2e</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>140</v>
@@ -1938,14 +1455,14 @@
       <c r="A8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTPS egress policy"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTPS egress policy"' make test-e2e</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>140</v>
@@ -1958,14 +1475,14 @@
       <c r="A9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D9,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="TCP egress policy"' make test-e2e</v>
+        <f t="shared" si="0"/>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP egress policy"' make test-e2e</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>140</v>
@@ -1989,7 +1506,7 @@
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Egress"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Egress"' make test-e2e</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>140</v>
@@ -2013,7 +1530,7 @@
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Fluent Bit deployment"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Fluent Bit deployment"' make test-e2e</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>140</v>
@@ -2037,7 +1554,7 @@
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Fluent Bit output"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Fluent Bit output"' make test-e2e</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>140</v>
@@ -2061,7 +1578,7 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Garbage Collection"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Garbage Collection"' make test-e2e</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>140</v>
@@ -2084,14 +1601,14 @@
         <v>108</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D14,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="gRPC insecure traffic origination over HTTP2 with SMI HTTP routes"' make test-e2e</v>
+        <f t="shared" si="0"/>
+        <v>E2E_FLAGS='-ginkgo.focus="gRPC insecure traffic origination over HTTP2 with SMI HTTP routes"' make test-e2e</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
         <v>142</v>
@@ -2111,14 +1628,14 @@
         <v>106</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D15,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="gRPC secure traffic origination over HTTP2 with SMI TCP routes"' make test-e2e</v>
+        <f t="shared" si="0"/>
+        <v>E2E_FLAGS='-ginkgo.focus="gRPC secure traffic origination over HTTP2 with SMI TCP routes"' make test-e2e</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
         <v>142</v>
@@ -2138,8 +1655,8 @@
         <v>104</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D16,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HashivaultSimpleClientServer"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D16,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="HashivaultSimpleClientServer"' make test-e2e</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>140</v>
@@ -2162,8 +1679,8 @@
         <v>77</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" ref="E17:E22" si="1">_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D17,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Test health probes can succeed"' make test-e2e</v>
+        <f t="shared" ref="E17:E22" si="1">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D17,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Test health probes can succeed"' make test-e2e</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>56</v>
@@ -2186,8 +1703,8 @@
         <v>102</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D18,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Helm install using default values"' make test-e2e</v>
+        <f t="shared" si="1"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Helm install using default values"' make test-e2e</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>139</v>
@@ -2210,8 +1727,8 @@
         <v>100</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D19,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Ignore Label"' make test-e2e</v>
+        <f t="shared" si="1"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Ignore Label"' make test-e2e</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>139</v>
@@ -2219,7 +1736,7 @@
       <c r="G19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -2236,7 +1753,7 @@
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP ingress with IngressBackend"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP ingress with IngressBackend"' make test-e2e</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>139</v>
@@ -2244,8 +1761,8 @@
       <c r="G20" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>306</v>
+      <c r="H20" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2263,7 +1780,7 @@
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="When OSM is Installed"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="When OSM is Installed"' make test-e2e</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>139</v>
@@ -2271,7 +1788,7 @@
       <c r="G21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -2288,7 +1805,7 @@
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Test IP range exclusion"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Test IP range exclusion"' make test-e2e</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>139</v>
@@ -2296,24 +1813,24 @@
       <c r="G22" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -kindClusterName=osm -timeout 900s -ginkgo.focus=""",D23,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -kindClusterName=osm -timeout 900s -ginkgo.focus="Version v1.22.8"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D23,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.8"' make test-e2e</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>139</v>
@@ -2321,22 +1838,22 @@
       <c r="G23" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>306</v>
+      <c r="H23" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="4" t="s">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -kindClusterName=osm -timeout 900s -ginkgo.focus=""",D24,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -kindClusterName=osm -timeout 900s -ginkgo.focus="Version v1.21.11"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D24,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.11"' make test-e2e</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>139</v>
@@ -2344,8 +1861,8 @@
       <c r="G24" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>306</v>
+      <c r="H24" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2362,17 +1879,17 @@
         <v>98</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D25,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D25,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2389,8 +1906,8 @@
         <v>29</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D26,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Multiple service ports"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D26,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Multiple service ports"' make test-e2e</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>56</v>
@@ -2413,8 +1930,8 @@
         <v>30</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" ref="E27:E50" si="2">_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D27,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
+        <f t="shared" ref="E27:E50" si="2">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D27,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>140</v>
@@ -2438,7 +1955,7 @@
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Becomes ready after being reinstalled"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Becomes ready after being reinstalled"' make test-e2e</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>140</v>
@@ -2462,7 +1979,7 @@
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>140</v>
@@ -2475,10 +1992,10 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -2486,7 +2003,7 @@
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>140</v>
@@ -2499,14 +2016,14 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>140</v>
@@ -2519,10 +2036,10 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="28" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2530,7 +2047,7 @@
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>140</v>
@@ -2543,14 +2060,14 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>140</v>
@@ -2563,10 +2080,10 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2574,7 +2091,7 @@
       </c>
       <c r="E34" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Test global port exclusion"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Test global port exclusion"' make test-e2e</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>140</v>
@@ -2587,14 +2104,14 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D35,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
+        <f t="shared" si="2"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>140</v>
@@ -2618,7 +2135,7 @@
       </c>
       <c r="E36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="proxy resources"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="proxy resources"' make test-e2e</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>140</v>
@@ -2641,8 +2158,8 @@
         <v>95</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D37,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Enable Reconciler"' make test-e2e</v>
+        <f t="shared" si="2"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Enable Reconciler"' make test-e2e</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>140</v>
@@ -2655,10 +2172,10 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2666,7 +2183,7 @@
       </c>
       <c r="E38" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>140</v>
@@ -2679,14 +2196,14 @@
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D39,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
+        <f t="shared" si="2"/>
+        <v>E2E_FLAGS='-ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>140</v>
@@ -2699,10 +2216,10 @@
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2710,7 +2227,7 @@
       </c>
       <c r="E40" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>140</v>
@@ -2723,14 +2240,14 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>140</v>
@@ -2754,7 +2271,7 @@
       </c>
       <c r="E42" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>140</v>
@@ -2778,7 +2295,7 @@
       </c>
       <c r="E43" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>140</v>
@@ -2791,10 +2308,10 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2802,7 +2319,7 @@
       </c>
       <c r="E44" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>140</v>
@@ -2815,14 +2332,14 @@
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D45,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
+        <f t="shared" si="2"/>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>140</v>
@@ -2846,7 +2363,7 @@
       </c>
       <c r="E46" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>140</v>
@@ -2870,7 +2387,7 @@
       </c>
       <c r="E47" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP traffic splitting - root service selector matches backends"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting - root service selector matches backends"' make test-e2e</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>140</v>
@@ -2883,10 +2400,10 @@
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="28" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2894,7 +2411,7 @@
       </c>
       <c r="E48" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>140</v>
@@ -2907,14 +2424,14 @@
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E49" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>140</v>
@@ -2927,14 +2444,14 @@
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E50" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>140</v>
@@ -2957,35 +2474,35 @@
         <v>143</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D51,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D51,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D52,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D52,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>140</v>
@@ -2998,14 +2515,14 @@
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus=""",D53,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-kindClusterName=osm -timeout 900s -ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D53,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>140</v>
@@ -3020,92 +2537,87 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="30"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A55:D66"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C30:C31"/>
@@ -3122,6 +2634,11 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A55:D66"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,1305 +2647,4 @@
     <ignoredError sqref="A2:A4 A5:A10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91392B01-8068-43E3-BEA1-C589F6866892}">
-  <dimension ref="A1:B160"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B160" sqref="A1:B160"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="54.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>3</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>4</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>5</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>10</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>11</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>14</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>15</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>16</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>18</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>19</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>20</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>21</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>22</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>23</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>24</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>25</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>26</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>27</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>28</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>29</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>30</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>31</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>32</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>33</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>34</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>35</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>36</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>37</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <v>38</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <v>39</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>40</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>41</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>42</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>43</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>44</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>45</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>46</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
-        <v>47</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>48</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>49</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
-        <v>50</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
-        <v>51</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>52</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
-        <v>53</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>54</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>55</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>56</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>57</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>58</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>59</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>60</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
-        <v>61</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>62</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>63</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
-        <v>64</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
-        <v>65</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>66</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>67</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <v>68</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
-        <v>69</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
-        <v>70</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <v>71</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
-        <v>72</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
-        <v>73</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
-        <v>74</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
-        <v>75</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
-        <v>76</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
-        <v>77</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
-        <v>78</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
-        <v>79</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
-        <v>80</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
-        <v>81</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
-        <v>82</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
-        <v>83</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
-        <v>84</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="16">
-        <v>85</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
-        <v>86</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
-        <v>87</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
-        <v>88</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
-        <v>89</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
-        <v>90</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
-        <v>91</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
-        <v>92</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
-        <v>93</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
-        <v>94</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
-        <v>95</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
-        <v>96</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
-        <v>97</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="16">
-        <v>98</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
-        <v>99</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="16">
-        <v>100</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
-        <v>101</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
-        <v>102</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="16">
-        <v>103</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="16">
-        <v>104</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
-        <v>105</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="16">
-        <v>106</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="16">
-        <v>107</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="16">
-        <v>108</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="16">
-        <v>109</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="16">
-        <v>110</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="16">
-        <v>111</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="16">
-        <v>112</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
-        <v>113</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
-        <v>114</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
-        <v>115</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="16">
-        <v>116</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="16">
-        <v>117</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="16">
-        <v>118</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="16">
-        <v>119</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="16">
-        <v>120</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="16">
-        <v>121</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="16">
-        <v>122</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="16">
-        <v>123</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="16">
-        <v>124</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="16">
-        <v>125</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="16">
-        <v>126</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="16">
-        <v>127</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="16">
-        <v>128</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="16">
-        <v>129</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="16">
-        <v>130</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="16">
-        <v>131</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="16">
-        <v>132</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="16">
-        <v>133</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="16">
-        <v>134</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="16">
-        <v>135</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="16">
-        <v>136</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="16">
-        <v>137</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="16">
-        <v>138</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="16">
-        <v>139</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="16">
-        <v>140</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="16">
-        <v>141</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="16">
-        <v>142</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="16">
-        <v>143</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="16">
-        <v>144</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="16">
-        <v>145</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="16">
-        <v>146</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="16">
-        <v>147</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="16">
-        <v>148</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="16">
-        <v>149</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="16">
-        <v>150</v>
-      </c>
-      <c r="B150" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="16">
-        <v>151</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="16">
-        <v>152</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="16">
-        <v>153</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="16">
-        <v>154</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="16">
-        <v>155</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="16">
-        <v>156</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="16">
-        <v>157</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="16">
-        <v>158</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="16">
-        <v>159</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="16">
-        <v>160</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/test.e2e.xlsx
+++ b/test.e2e.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoHome\src\github.com\osm.tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoHome\src\github.com\cybwan\osm.tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA2810-72ED-41F7-8FA1-5A1C02B7FEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DBE84-DAF8-46B8-9196-237DDE05F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="18820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55830" yWindow="3600" windowWidth="33090" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
   <si>
     <t>e2e_certmanager_test.go</t>
   </si>
@@ -565,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pipy暂不支持http2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tests upgrading the control plane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,19 +573,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要从官方下载OSM新版本安装包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意测试方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Version v1.22.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version v1.21.11</t>
+    <t>Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version v1.23.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version v1.22.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version v1.21.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version v1.20.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version v1.19.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -618,38 +627,6 @@
 3.在执行这个testcase时，当nginx ingress controller启动后，执行 kubectl port-forward --namespace=ingress-ns service/ingress-nginx-controller 80:80
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二、测试用例22和23测试方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-1.kind使用0.12.0版本的
-2.charts/osm/values.yaml文件中的sidecarImage和curlImage不要使用本地Registry中的镜像，调整后重新build osm的镜像
-3.tests目录下的go文件中的curlimages/curl和naqvis/httpbin不要使用本地Registry中的镜像
-4.tests/e2e/e2e_k8s_version_test.go中的WaitForPodsRunningReady超时时间90s放大到900s(取决于你的科学上网的速度)
-5.开启科学上网
-6.执行测试用例，注意这两个测试用例的参数同其他的不同</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,15 +922,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -981,15 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,24 +1245,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="3" width="77.08203125" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="77.08203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="71.58203125" customWidth="1"/>
-    <col min="5" max="5" width="108" customWidth="1"/>
+    <col min="5" max="5" width="108" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="29.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
@@ -1311,7 +1285,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>130</v>
       </c>
@@ -1335,7 +1309,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>131</v>
       </c>
@@ -1359,7 +1333,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>132</v>
       </c>
@@ -1383,7 +1357,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>133</v>
       </c>
@@ -1407,14 +1381,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1431,12 +1405,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
@@ -1451,12 +1425,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
@@ -1471,17 +1445,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D9,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="TCP egress policy"' make test-e2e</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1491,7 +1465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>138</v>
       </c>
@@ -1515,7 +1489,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1539,7 +1513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1563,7 +1537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1587,61 +1561,55 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="gRPC insecure traffic origination over HTTP2 with SMI HTTP routes"' make test-e2e</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="gRPC secure traffic origination over HTTP2 with SMI TCP routes"' make test-e2e</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1736,7 +1704,7 @@
       <c r="G19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1761,8 +1729,8 @@
       <c r="G20" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>146</v>
+      <c r="H20" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1788,7 +1756,7 @@
       <c r="G21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -1813,24 +1781,24 @@
       <c r="G22" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="4" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D23,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.8"' make test-e2e</v>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.23.6"' make test-e2e</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>139</v>
@@ -1838,22 +1806,20 @@
       <c r="G23" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>146</v>
-      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D24,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.11"' make test-e2e</v>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.9"' make test-e2e</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>139</v>
@@ -1861,149 +1827,138 @@
       <c r="G24" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>146</v>
-      </c>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D25,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f t="shared" ref="E25:E26" si="2">_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D25,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.12"' make test-e2e</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>29</v>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D26,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Multiple service ports"' make test-e2e</v>
+        <f t="shared" si="2"/>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.20.15"' make test-e2e</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>56</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" ref="E27:E50" si="2">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D27,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D27,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.19.16"' make test-e2e</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Becomes ready after being reinstalled"' make test-e2e</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D28,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>84</v>
+      <c r="B29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D29,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Multiple service ports"' make test-e2e</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>57</v>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
+        <f t="shared" ref="E30:E53" si="3">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D30,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>140</v>
@@ -2016,14 +1971,18 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" s="4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Becomes ready after being reinstalled"' make test-e2e</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>140</v>
@@ -2036,18 +1995,18 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>88</v>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>140</v>
@@ -2060,14 +2019,18 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="B33" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>140</v>
@@ -2080,18 +2043,14 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Test global port exclusion"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>140</v>
@@ -2104,14 +2063,18 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>140</v>
@@ -2124,18 +2087,14 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>97</v>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="proxy resources"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>140</v>
@@ -2148,18 +2107,18 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>95</v>
+      <c r="B37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="Enable Reconciler"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Test global port exclusion"' make test-e2e</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>140</v>
@@ -2172,18 +2131,14 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>74</v>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="E38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>140</v>
@@ -2196,14 +2151,18 @@
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D39" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="proxy resources"' make test-e2e</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>140</v>
@@ -2216,18 +2175,18 @@
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>35</v>
+      <c r="B40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="Enable Reconciler"' make test-e2e</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>140</v>
@@ -2240,14 +2199,18 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="4" t="s">
-        <v>36</v>
+      <c r="B41" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>140</v>
@@ -2260,18 +2223,14 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>38</v>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>140</v>
@@ -2280,22 +2239,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>33</v>
+      <c r="B43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>140</v>
@@ -2308,18 +2267,14 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>140</v>
@@ -2332,14 +2287,18 @@
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D45" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>140</v>
@@ -2348,22 +2307,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>140</v>
@@ -2376,18 +2335,18 @@
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>62</v>
+      <c r="B47" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting - root service selector matches backends"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>140</v>
@@ -2400,18 +2359,14 @@
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>62</v>
-      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>140</v>
@@ -2420,18 +2375,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D49" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>140</v>
@@ -2440,18 +2399,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D50" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting - root service selector matches backends"' make test-e2e</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>140</v>
@@ -2460,49 +2423,42 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D51,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>39</v>
-      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D52,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>140</v>
@@ -2511,134 +2467,202 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D54,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>51</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D55,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>52</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D53,"""' make test-e2e")</f>
+      <c r="E56" s="4" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D56,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
+      <c r="F56" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
+    <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-    </row>
-    <row r="66" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="27"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A58:D69"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A55:D66"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.e2e.xlsx
+++ b/test.e2e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoHome\src\github.com\cybwan\osm.tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50DBE84-DAF8-46B8-9196-237DDE05F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59916CBE-418E-43D5-8C9C-B17428486EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55830" yWindow="3600" windowWidth="33090" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,15 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -964,6 +955,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,16 +1248,16 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G56"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="77.08203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="3" max="3" width="77.08203125" customWidth="1"/>
     <col min="4" max="4" width="71.58203125" customWidth="1"/>
-    <col min="5" max="5" width="108" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="108" customWidth="1"/>
     <col min="6" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="29.4140625" customWidth="1"/>
   </cols>
@@ -1385,10 +1385,10 @@
       <c r="A6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1409,8 +1409,8 @@
       <c r="A7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
@@ -1429,8 +1429,8 @@
       <c r="A8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
@@ -1449,8 +1449,8 @@
       <c r="A9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
@@ -1787,10 +1787,10 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="27" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1812,8 +1812,8 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="4" t="s">
         <v>147</v>
       </c>
@@ -1833,8 +1833,8 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="4" t="s">
         <v>148</v>
       </c>
@@ -1854,8 +1854,8 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="4" t="s">
         <v>149</v>
       </c>
@@ -1875,8 +1875,8 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="4" t="s">
         <v>150</v>
       </c>
@@ -2019,10 +2019,10 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2043,8 +2043,8 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="4" t="s">
         <v>59</v>
       </c>
@@ -2063,10 +2063,10 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="27" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2087,8 +2087,8 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="4" t="s">
         <v>90</v>
       </c>
@@ -2107,10 +2107,10 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2131,8 +2131,8 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="4" t="s">
         <v>87</v>
       </c>
@@ -2199,10 +2199,10 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2223,8 +2223,8 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="7" t="s">
         <v>75</v>
       </c>
@@ -2243,10 +2243,10 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2267,8 +2267,8 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="4" t="s">
         <v>36</v>
       </c>
@@ -2335,10 +2335,10 @@
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2359,8 +2359,8 @@
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="4" t="s">
         <v>71</v>
       </c>
@@ -2427,10 +2427,10 @@
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2451,8 +2451,8 @@
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="4" t="s">
         <v>64</v>
       </c>
@@ -2471,8 +2471,8 @@
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="4" t="s">
         <v>65</v>
       </c>
@@ -2515,10 +2515,10 @@
       <c r="A55" s="6">
         <v>51</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -2539,8 +2539,8 @@
       <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="4" t="s">
         <v>41</v>
       </c>
@@ -2561,78 +2561,78 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="27"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
@@ -2642,11 +2642,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A58:D69"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C33:C34"/>
@@ -2663,6 +2658,11 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A58:D69"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.e2e.xlsx
+++ b/test.e2e.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoHome\src\github.com\cybwan\osm.tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59916CBE-418E-43D5-8C9C-B17428486EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A1077-DA71-4700-89A0-615A06A4383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55830" yWindow="3600" windowWidth="33090" windowHeight="17490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59820" yWindow="900" windowWidth="30675" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="155">
   <si>
     <t>e2e_certmanager_test.go</t>
   </si>
@@ -475,14 +475,6 @@
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD64 Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARM64 Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,12 +621,32 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>nc半关闭相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Envoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +701,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -722,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -809,77 +830,19 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -888,13 +851,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,9 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -919,9 +878,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -929,41 +885,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,1430 +1205,1860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="3" width="77.08203125" customWidth="1"/>
-    <col min="4" max="4" width="71.58203125" customWidth="1"/>
-    <col min="5" max="5" width="108" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="29.4140625" customWidth="1"/>
+    <col min="3" max="3" width="77.08203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="71.58203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="107.83203125" customWidth="1"/>
+    <col min="6" max="9" width="12.08203125" customWidth="1"/>
+    <col min="10" max="10" width="29.4140625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D3,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="CertManagerSimpleClientServer"' make test-e2e</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" ref="E4:E16" si="0">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D4,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer traffic test involving osm-controller restart: HTTP"' make test-e2e</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D2,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="CertManagerSimpleClientServer"' make test-e2e</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E15" si="0">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D3,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer traffic test involving osm-controller restart: HTTP"' make test-e2e</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="DebugServer"' make test-e2e</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="DeploymentsClientServer"' make test-e2e</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="F6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP egress policy without route matches"' make test-e2e</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP egress policy with route match"' make test-e2e</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTPS egress policy"' make test-e2e</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D9,"""' make test-e2e")</f>
+      <c r="E10" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D10,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="TCP egress policy"' make test-e2e</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="F10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="H10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Egress"' make test-e2e</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="F11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Fluent Bit deployment"' make test-e2e</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="F12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Fluent Bit output"' make test-e2e</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="F13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Garbage Collection"' make test-e2e</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="F14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="gRPC insecure traffic origination over HTTP2 with SMI HTTP routes"' make test-e2e</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="F15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="gRPC secure traffic origination over HTTP2 with SMI TCP routes"' make test-e2e</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="F16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D16,"""' make test-e2e")</f>
+      <c r="E17" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D17,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HashivaultSimpleClientServer"' make test-e2e</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="F17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" ref="E17:E22" si="1">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D17,"""' make test-e2e")</f>
+      <c r="E18" s="3" t="str">
+        <f t="shared" ref="E18:E23" si="1">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D18,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Test health probes can succeed"' make test-e2e</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="F18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>E2E_FLAGS='-ginkgo.focus="Helm install using default values"' make test-e2e</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="F19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>E2E_FLAGS='-ginkgo.focus="Ignore Label"' make test-e2e</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="F20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="E21" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D21,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP ingress with IngressBackend"' make test-e2e</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="F21" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="E22" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D22,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="When OSM is Installed"' make test-e2e</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="F22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test IP range exclusion"' make test-e2e</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="F23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="B24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D24,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.23.6"' make test-e2e</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D25,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.9"' make test-e2e</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D23,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.23.6"' make test-e2e</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="4" t="s">
+      <c r="E26" s="3" t="str">
+        <f t="shared" ref="E26:E27" si="2">_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D26,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.12"' make test-e2e</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D24,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.9"' make test-e2e</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" ref="E25:E26" si="2">_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D25,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.12"' make test-e2e</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="4" t="str">
+      <c r="E27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.20.15"' make test-e2e</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="F27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D27,"""' make test-e2e")</f>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D28,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.19.16"' make test-e2e</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="F28" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D28,"""' make test-e2e")</f>
+      <c r="E29" s="6" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D29,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F29" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="G29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D29,"""' make test-e2e")</f>
+      <c r="E30" s="6" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D30,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Multiple service ports"' make test-e2e</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="F30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="4" t="str">
-        <f t="shared" ref="E30:E53" si="3">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D30,"""' make test-e2e")</f>
+      <c r="E31" s="6" t="str">
+        <f t="shared" ref="E31:E53" si="3">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D31,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="F31" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="4" t="str">
+      <c r="E32" s="6" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Becomes ready after being reinstalled"' make test-e2e</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="F32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="4" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="F33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="B34" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E34" s="6" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D34,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="F34" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="4" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="4" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="F35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B36" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C36" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="4" t="str">
+      <c r="E36" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="F36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="4" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="4" t="str">
+      <c r="E37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="F37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B38" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C38" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="4" t="str">
+      <c r="E38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test global port exclusion"' make test-e2e</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="F38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="4" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="4" t="str">
+      <c r="E39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="F39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="4" t="str">
+      <c r="E40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="proxy resources"' make test-e2e</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="F40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="4" t="str">
+      <c r="E41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Enable Reconciler"' make test-e2e</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="F41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="27" t="s">
+      <c r="B42" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="4" t="str">
+      <c r="E42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="F42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="7" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="4" t="str">
+      <c r="E43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="F43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="4" t="str">
+      <c r="E44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="F44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="4" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="4" t="str">
+      <c r="E45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="F45" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="4" t="str">
+      <c r="E46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="F46" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="4" t="str">
+      <c r="E47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="F47" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B48" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E48" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D48,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="F48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="4" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="4" t="str">
+      <c r="E49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="F49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="4" t="str">
+      <c r="E50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="F50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="4" t="str">
+      <c r="E51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting - root service selector matches backends"' make test-e2e</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="F51" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B52" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C52" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="4" t="str">
+      <c r="E52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="F52" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="4" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="4" t="str">
+      <c r="E53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D54,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D54,"""' make test-e2e")</f>
+      <c r="E55" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D55,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>51</v>
-      </c>
-      <c r="B55" s="27" t="s">
+      <c r="F55" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C56" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D55,"""' make test-e2e")</f>
+      <c r="E56" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D56,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
-        <v>52</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="4" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D56,"""' make test-e2e")</f>
+      <c r="E57" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D57,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
+      <c r="F57" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="23"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="23"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+    <row r="59" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A58:D69"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A59:G70"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A4 A5:A10" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A5 A6:A11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test.e2e.xlsx
+++ b/test.e2e.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoHome\src\github.com\cybwan\osm.tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A1077-DA71-4700-89A0-615A06A4383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB24407-99C3-4E52-B72E-BF25C927ED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59820" yWindow="900" windowWidth="30675" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72450" yWindow="375" windowWidth="25185" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="170">
   <si>
     <t>e2e_certmanager_test.go</t>
   </si>
@@ -570,10 +570,6 @@
   </si>
   <si>
     <t>Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version v1.23.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,6 +635,56 @@
   </si>
   <si>
     <t>AMD64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version v1.23.6</t>
+  </si>
+  <si>
+    <t>Version v1.24.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3e_egress_policy_test.go</t>
+  </si>
+  <si>
+    <t>e4e_egress_policy_test.go</t>
+  </si>
+  <si>
+    <t>e5e_egress_policy_test.go</t>
+  </si>
+  <si>
+    <t>e3e_permissive_test.go</t>
+  </si>
+  <si>
+    <t>e3e_pod_client_server_test.go</t>
+  </si>
+  <si>
+    <t>e3e_port_exclusion_test.go</t>
+  </si>
+  <si>
+    <t>e3e_smi_traffic_target_test.go</t>
+  </si>
+  <si>
+    <t>e3e_tcp_client_server_test.go</t>
+  </si>
+  <si>
+    <t>e3e_trafficsplit_recursive_split.go</t>
+  </si>
+  <si>
+    <t>e3e_trafficsplit_test.go</t>
+  </si>
+  <si>
+    <t>e4e_trafficsplit_test.go</t>
+  </si>
+  <si>
+    <t>e3e_validate_smi_traffic_target_test.go</t>
+  </si>
+  <si>
+    <t>e2e_k8s_version_test.go</t>
+  </si>
+  <si>
+    <t>e2e_k8s_version_test.go</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -901,7 +947,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,17 +971,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,19 +1254,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13:G14"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="3" width="77.08203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="71.58203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="77.08203125" customWidth="1"/>
+    <col min="4" max="4" width="71.58203125" customWidth="1"/>
     <col min="5" max="5" width="107.83203125" customWidth="1"/>
     <col min="6" max="9" width="12.08203125" customWidth="1"/>
     <col min="10" max="10" width="29.4140625" customWidth="1"/>
@@ -1225,10 +1274,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1237,35 +1286,35 @@
       <c r="D1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1395,7 +1444,7 @@
       <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1422,8 +1471,10 @@
       <c r="A8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1448,8 +1499,10 @@
       <c r="A9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
@@ -1474,8 +1527,10 @@
       <c r="A10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1899,15 +1954,15 @@
       <c r="B24" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D24,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.23.6"' make test-e2e</v>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.24.2"' make test-e2e</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>137</v>
@@ -1927,14 +1982,16 @@
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="29"/>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D25,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.9"' make test-e2e</v>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.23.6"' make test-e2e</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>137</v>
@@ -1952,16 +2009,18 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" ref="E26:E27" si="2">_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D26,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.12"' make test-e2e</v>
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D26,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.22.9"' make test-e2e</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>137</v>
@@ -1979,44 +2038,48 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
+        <v>24</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" ref="E27:E28" si="2">_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D27,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.21.12"' make test-e2e</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="3" t="str">
+      <c r="B28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.20.15"' make test-e2e</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D28,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.19.16"' make test-e2e</v>
-      </c>
       <c r="F28" s="18" t="s">
         <v>137</v>
       </c>
@@ -2033,89 +2096,88 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
+        <v>26</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-installType=KindCluster -ginkgo.focus=""",D29,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-installType=KindCluster -ginkgo.focus="Version v1.19.16"' make test-e2e</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" s="6" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D29,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E30" s="6" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D30,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D31,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Multiple service ports"' make test-e2e</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="6" t="str">
-        <f t="shared" ref="E31:E53" si="3">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D31,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
-      </c>
       <c r="F31" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>56</v>
@@ -2126,86 +2188,86 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="E32" s="6" t="str">
+        <f t="shared" ref="E32:E54" si="3">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D32,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="E33" s="6" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Becomes ready after being reinstalled"' make test-e2e</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="H33" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="F34" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="6" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D34,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>56</v>
@@ -2216,571 +2278,589 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D35,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="3" t="s">
+      <c r="B36" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="F36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B37" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C37" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="3" t="str">
+      <c r="E37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="18" t="s">
+      <c r="F37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="H37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="3" t="s">
+      <c r="B38" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="3" t="str">
+      <c r="E38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="F38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="H38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="3" t="str">
+      <c r="E39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test global port exclusion"' make test-e2e</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="H39" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="3" t="s">
+      <c r="B40" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="3" t="str">
+      <c r="E40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="H40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="3" t="str">
+      <c r="E41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="proxy resources"' make test-e2e</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="H41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="3" t="str">
+      <c r="E42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Enable Reconciler"' make test-e2e</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="F42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="H42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B43" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C43" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="3" t="str">
+      <c r="E43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="18" t="s">
+      <c r="F43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="H43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="6" t="s">
+      <c r="B44" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="3" t="str">
+      <c r="E44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="18" t="s">
+      <c r="F44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="15">
+      <c r="H44" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
         <v>42</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="3" t="str">
+      <c r="E45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F45" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G45" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="H45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="3" t="s">
+      <c r="B46" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="3" t="str">
+      <c r="E46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F46" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G46" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="H46" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="3" t="str">
+      <c r="E47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="F47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H46" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="H47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="3" t="str">
+      <c r="E48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F48" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G48" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="H48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
         <v>46</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C49" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D48,"""' make test-e2e")</f>
+      <c r="E49" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D49,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="F49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="H49" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="3" t="s">
+      <c r="B50" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="3" t="str">
+      <c r="E50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="F50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="H50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="3" t="str">
+      <c r="E51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="18" t="s">
+      <c r="F51" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="H51" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="3" t="str">
+      <c r="E52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting - root service selector matches backends"' make test-e2e</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" s="18" t="s">
+      <c r="F52" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="H52" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="3" t="str">
+      <c r="E53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="18" t="s">
+      <c r="F53" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="H53" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="3" t="s">
+      <c r="B54" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="3" t="str">
+      <c r="E54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>52</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="3" t="str">
-        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D54,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
-      </c>
       <c r="F54" s="18" t="s">
         <v>56</v>
       </c>
@@ -2796,56 +2876,54 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>53</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="26"/>
       <c r="D55" s="3" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="E55" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D55,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>143</v>
+        <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>54</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="E56" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D56,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="Tests upgrading the control plane"' make test-e2e</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>56</v>
@@ -2856,16 +2934,20 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>55</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="D57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D57,"""' make test-e2e")</f>
-        <v>E2E_FLAGS='-ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
+        <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled"' make test-e2e</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>56</v>
@@ -2881,178 +2963,196 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="A58" s="5">
+        <v>55</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",D58,"""' make test-e2e")</f>
+        <v>E2E_FLAGS='-ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+    <row r="60" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="16">
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A60:G71"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A59:G70"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.e2e.xlsx
+++ b/test.e2e.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baili/go/src/github.com/cybwan/osm.tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F0D98-7762-6045-9AAB-0B0D56B533BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9A71B-26D9-4544-960D-8CAC86C7ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-28140" windowWidth="49680" windowHeight="27640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34820" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试结果" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试结果!$A$1:$M$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -668,9 +671,6 @@
   <si>
     <t>e2e_tcp_client_server_test.go</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleClientServer TCP with SMI policies</t>
   </si>
   <si>
     <t>Tests TCP traffic for client pod -&gt; server pod</t>
@@ -904,12 +904,16 @@
     <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SimpleClientServer TCP with SMI policies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,6 +994,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1029,7 +1066,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1087,19 +1124,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1168,23 +1192,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1193,12 +1214,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1213,55 +1228,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,44 +1292,35 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,81 +1606,83 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
-    <col min="4" max="5" width="9.5" style="17" customWidth="1"/>
-    <col min="6" max="7" width="71.5" customWidth="1"/>
-    <col min="8" max="8" width="107.83203125" customWidth="1"/>
-    <col min="9" max="12" width="12" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="77" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6" style="14" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="71.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="94" customWidth="1"/>
+    <col min="9" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="13" width="29.33203125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="4" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="43" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1676,10 +1691,10 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1692,89 +1707,97 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F3,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="CertManagerSimpleClientServer"' make test-e2e</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="I3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="25">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="42" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="42" t="str">
         <f t="shared" ref="H4:H16" si="0">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F4,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server with a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="I4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="52"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>7</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to server without a Kubernetes Service for the Source: HTTP"' make test-e2e</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="I5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="53"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>7</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>89</v>
       </c>
@@ -1785,33 +1808,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test traffic flowing from client to a server with a podIP bind"' make test-e2e</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="I6" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1824,33 +1847,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer traffic test involving osm-controller restart: HTTP"' make test-e2e</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="I7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1863,33 +1886,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="DebugServer"' make test-e2e</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1">
-      <c r="A9" s="54" t="s">
+      <c r="I8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1">
+      <c r="A9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1902,33 +1925,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="DeploymentsClientServer"' make test-e2e</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1">
-      <c r="A10" s="51" t="s">
+      <c r="I9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1">
+      <c r="A10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="24">
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1939,25 +1962,29 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F10,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP egress policy without route matches"' make test-e2e</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="I10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="52"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1966,25 +1993,29 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP egress policy with route match"' make test-e2e</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="I11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="52"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1993,25 +2024,29 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTPS egress policy"' make test-e2e</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="I12" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="53"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="41">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41">
+        <v>3</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
@@ -2022,33 +2057,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP egress policy"' make test-e2e</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="I13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="23">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2061,33 +2096,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Egress"' make test-e2e</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="I14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2100,33 +2135,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Fluent Bit deployment"' make test-e2e</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="I15" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2139,33 +2174,33 @@
         <f t="shared" si="0"/>
         <v>E2E_FLAGS='-ginkgo.focus="Fluent Bit output"' make test-e2e</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="13" t="s">
+      <c r="I16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>2</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2178,33 +2213,33 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F17,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Garbage Collection"' make test-e2e</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1">
-      <c r="A18" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="I17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1">
+      <c r="A18" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2217,33 +2252,33 @@
         <f t="shared" ref="H18:H23" si="1">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F18,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="gRPC insecure traffic origination over HTTP2 with SMI HTTP routes"' make test-e2e</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="13" t="s">
+      <c r="I18" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2256,22 +2291,22 @@
         <f t="shared" si="1"/>
         <v>E2E_FLAGS='-ginkgo.focus="gRPC secure traffic origination over HTTP2 with SMI TCP routes"' make test-e2e</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="54" t="s">
-        <v>190</v>
+      <c r="A20" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>112</v>
@@ -2279,10 +2314,10 @@
       <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="13">
         <v>2</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="13">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2295,80 +2330,84 @@
         <f t="shared" si="1"/>
         <v>E2E_FLAGS='-ginkgo.focus="HashivaultSimpleClientServer"' make test-e2e</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="9"/>
+      <c r="K20" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
-      <c r="A21" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="25">
         <v>1</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="25">
         <v>4</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="33" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="27" t="str">
+      <c r="H21" s="33" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F21,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Test health probes can succeed"' make test-e2e</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="8"/>
+      <c r="K21" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="53"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
+      <c r="E22" s="25">
+        <v>4</v>
+      </c>
+      <c r="F22" s="35"/>
       <c r="G22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="8"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="54" t="s">
-        <v>210</v>
+      <c r="A23" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>116</v>
@@ -2376,10 +2415,10 @@
       <c r="C23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2392,34 +2431,34 @@
         <f t="shared" si="1"/>
         <v>E2E_FLAGS='-ginkgo.focus="Helm install using default values"' make test-e2e</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>1</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2432,34 +2471,34 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F24,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Ignore Label"' make test-e2e</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="K24" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="21">
         <v>1</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2472,36 +2511,36 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F25,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP ingress with IngressBackend"' make test-e2e</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="K25" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>205</v>
+      <c r="M25" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <v>2</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>5</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2510,38 +2549,38 @@
       <c r="G26" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="4" t="str">
         <f t="shared" ref="H26:H29" si="2">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F26,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="When OSM is Installed"' make test-e2e</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="13" t="s">
+      <c r="K26" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="8"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="21">
         <v>2</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <v>5</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2550,38 +2589,38 @@
       <c r="G27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="H27" s="4" t="str">
         <f t="shared" si="2"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test IP range exclusion"' make test-e2e</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="13" t="s">
+      <c r="K27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -2590,38 +2629,38 @@
       <c r="G28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="H28" s="4" t="str">
         <f t="shared" si="2"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP request rate limiting"' make test-e2e</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="13" t="s">
+      <c r="K28" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="21">
         <v>2</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2630,118 +2669,118 @@
       <c r="G29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H29" s="4" t="str">
         <f t="shared" si="2"/>
         <v>E2E_FLAGS='-ginkgo.focus="Custom WASM metrics between one client pod and one server"' make test-e2e</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="13" t="s">
+      <c r="K29" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>207</v>
+      <c r="M29" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <v>2</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="21">
         <v>6</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="H30" s="4" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F30,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Multiple service ports"' make test-e2e</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="13" t="s">
+      <c r="I30" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1">
-      <c r="A31" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="23">
         <v>2</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="23">
         <v>6</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="4" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F31,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Multiple services matching same pod"' make test-e2e</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="13" t="s">
+      <c r="I31" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="21">
         <v>2</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="21">
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -2750,37 +2789,37 @@
       <c r="G32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H32" s="4" t="str">
         <f t="shared" ref="H32:H54" si="3">_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F32,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Test reinstalling OSM in the same namespace with the same mesh name"' make test-e2e</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="13" t="s">
+      <c r="I32" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="21">
         <v>1</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>2</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2789,171 +2828,179 @@
       <c r="G33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="H33" s="4" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="PermissiveToSmiSwitching"' make test-e2e</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="13" t="s">
+      <c r="I33" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="24">
         <v>1</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="24">
         <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="5" t="str">
+      <c r="H34" s="4" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test with a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="13" t="s">
+      <c r="I34" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="53"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
+        <v>7</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H35" s="4" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F35,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Permissive mode HTTP test without a Kubernetes Service for the Source"' make test-e2e</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="13" t="s">
+      <c r="I35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="24">
         <v>2</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="24">
         <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="5" t="str">
+        <v>183</v>
+      </c>
+      <c r="H36" s="4" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test global port exclusion"' make test-e2e</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="13" t="s">
+      <c r="I36" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="53"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="41">
+        <v>2</v>
+      </c>
+      <c r="E37" s="41">
+        <v>7</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Test pod level port exclusion"' make test-e2e</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="13" t="s">
+      <c r="I37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="41">
         <v>2</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="41">
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2966,203 +3013,219 @@
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="proxy resources"' make test-e2e</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="13" t="s">
+      <c r="I38" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="24">
         <v>2</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="24">
         <v>9</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="33" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="27" t="str">
+      <c r="H39" s="33" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F39,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Enable Reconciler"' make test-e2e</v>
       </c>
-      <c r="I39" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="29" t="s">
+      <c r="I39" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="52"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="24">
+        <v>2</v>
+      </c>
+      <c r="E40" s="24">
+        <v>9</v>
+      </c>
+      <c r="F40" s="34"/>
       <c r="G40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="53"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="5" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="24">
+        <v>2</v>
+      </c>
+      <c r="E41" s="24">
+        <v>9</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="51" t="s">
-        <v>215</v>
+      <c r="A42" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="B42" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="24">
         <v>2</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="24">
         <v>4</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>157</v>
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Retry policy disabled"' make test-e2e</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="13" t="s">
+      <c r="I42" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="53"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="40"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="5" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="24">
+        <v>2</v>
+      </c>
+      <c r="E43" s="24">
+        <v>4</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>160</v>
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="Retry policy enabled"' make test-e2e</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="13" t="s">
+      <c r="I43" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="27" t="s">
+      <c r="A44" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="24">
         <v>1</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="24">
         <v>8</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>161</v>
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SMI Traffic Target is not in the same namespace as the destination"' make test-e2e</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="13" t="s">
+      <c r="I44" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="53"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="41">
+        <v>1</v>
+      </c>
+      <c r="E45" s="41">
+        <v>8</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>162</v>
       </c>
@@ -3173,35 +3236,35 @@
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SMI TrafficTarget is set up properly"' make test-e2e</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="I45" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="41">
         <v>1</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="41">
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -3214,147 +3277,151 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F46,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Statefulsets"' make test-e2e</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
+      <c r="I46" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="24">
         <v>1</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="24">
         <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP with SMI policies"' make test-e2e</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="50" t="s">
-        <v>206</v>
+      <c r="K47" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="2" customFormat="1">
-      <c r="A48" s="53"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="6" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="41">
+        <v>1</v>
+      </c>
+      <c r="E48" s="41">
         <v>8</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>169</v>
+      <c r="F48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer TCP in permissive mode"' make test-e2e</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K48" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="N48" s="11"/>
+      <c r="K48" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="24">
+      <c r="D49" s="41">
         <v>1</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="41">
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H49" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F49,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="SimpleClientServer egress TCP"' make test-e2e</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="13" t="s">
+      <c r="I49" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="23" t="s">
+      <c r="A50" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="21">
         <v>1</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="21">
         <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -3367,141 +3434,145 @@
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP server-first traffic"' make test-e2e</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>206</v>
+      <c r="K50" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="D51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="24">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D51" s="33">
-        <v>1</v>
-      </c>
-      <c r="E51" s="33">
-        <v>9</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="13" t="s">
+      <c r="I51" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="53"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="41">
+        <v>1</v>
+      </c>
+      <c r="E52" s="41">
+        <v>9</v>
+      </c>
       <c r="F52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="TCP recursive traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="13" t="s">
+      <c r="I52" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="24">
+      <c r="C53" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="41">
         <v>1</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="41">
         <v>9</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="ClientServerTrafficSplitSameSA"' make test-e2e</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" s="13" t="s">
+      <c r="I53" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="27" t="s">
+      <c r="A54" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="33">
+      <c r="D54" s="24">
         <v>1</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="24">
         <v>5</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -3512,25 +3583,29 @@
         <f t="shared" si="3"/>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" s="13" t="s">
+      <c r="I54" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="52"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="24">
+        <v>1</v>
+      </c>
+      <c r="E55" s="24">
+        <v>5</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>30</v>
       </c>
@@ -3539,62 +3614,66 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F55,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="TCP traffic splitting with SMI"' make test-e2e</v>
       </c>
-      <c r="I55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" s="13" t="s">
+      <c r="I55" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="53"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="41">
+        <v>1</v>
+      </c>
+      <c r="E56" s="41">
+        <v>5</v>
+      </c>
       <c r="F56" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H56" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F56,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="HTTP traffic splitting with Permissive mode"' make test-e2e</v>
       </c>
-      <c r="I56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" s="13" t="s">
+      <c r="I56" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="21">
         <v>2</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="21">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -3607,351 +3686,335 @@
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F57,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="Upgrade from latest"' make test-e2e</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="13" t="s">
+      <c r="I57" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="41">
         <v>1</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="41">
         <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H58" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F58,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="With SMI Traffic Target validation enabled "' make test-e2e</v>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="13" t="s">
+      <c r="I58" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="53"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="41">
+        <v>1</v>
+      </c>
+      <c r="E59" s="41">
+        <v>8</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H59" s="3" t="str">
         <f>_xlfn.CONCAT("E2E_FLAGS='-ginkgo.focus=""",F59,"""' make test-e2e")</f>
         <v>E2E_FLAGS='-ginkgo.focus="With SMI validation disabled"' make test-e2e</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="13" t="s">
+      <c r="I59" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="14" customHeight="1">
-      <c r="A61" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
+      <c r="A61" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="47"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="47"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="47"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A61:J72"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A13"/>
+  <autoFilter ref="A1:M59" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="59">
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="A61:J72"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
